--- a/other/Diagrammes.xlsx
+++ b/other/Diagrammes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adele\Documents\Cours\Evaluation\ECF Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\garage\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1765E96D-B5A7-4571-8F6F-55F80F709772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA7B8BB-D843-4BE1-AF19-D06759A44454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="0" windowWidth="18000" windowHeight="12900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="De cas d'utilisation" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="110">
   <si>
     <t>&lt;&lt;include&gt;&gt;</t>
   </si>
@@ -136,9 +136,6 @@
   </si>
   <si>
     <t>1*</t>
-  </si>
-  <si>
-    <t>0*</t>
   </si>
   <si>
     <t>Rights</t>
@@ -278,12 +275,6 @@
     <t xml:space="preserve"> - hours : time</t>
   </si>
   <si>
-    <t>Forms</t>
-  </si>
-  <si>
-    <t>Comentaries</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - rating : int</t>
   </si>
   <si>
@@ -329,9 +320,6 @@
     <t>Equipments</t>
   </si>
   <si>
-    <t>Images : lien vers l'image</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - mileage : int</t>
   </si>
   <si>
@@ -341,25 +329,7 @@
     <t>Days</t>
   </si>
   <si>
-    <t xml:space="preserve">                                   needs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                    has</t>
-  </si>
-  <si>
-    <t>Years</t>
-  </si>
-  <si>
-    <t>Makes</t>
-  </si>
-  <si>
     <t>Models</t>
-  </si>
-  <si>
-    <t>Prices</t>
-  </si>
-  <si>
-    <t>Mileages</t>
   </si>
   <si>
     <t xml:space="preserve"> - has_equipment : int</t>
@@ -377,22 +347,28 @@
     <t>0*            has</t>
   </si>
   <si>
-    <t xml:space="preserve"> - has_year : date</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - has_model : string</t>
   </si>
   <si>
-    <t xml:space="preserve"> - has_make : string</t>
+    <t xml:space="preserve"> - has_timetable : date</t>
   </si>
   <si>
-    <t xml:space="preserve"> - has_price : int</t>
+    <t>1*         has</t>
   </si>
   <si>
-    <t xml:space="preserve"> - has_mileage : int</t>
+    <t>0*          about</t>
   </si>
   <si>
-    <t xml:space="preserve"> - has_timetable : date</t>
+    <t>Commentaries</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Brands</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - has_brand : string</t>
   </si>
 </sst>
 </file>
@@ -503,7 +479,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -559,16 +535,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9020,56 +8993,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>748393</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>749904</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>179917</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="Connecteur droit 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{904A460F-786D-4153-8CB1-A23A83B11043}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="748393" y="1905000"/>
-          <a:ext cx="1511" cy="751417"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>27214</xdr:colOff>
       <xdr:row>6</xdr:row>
@@ -9406,23 +9329,173 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>503465</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>13607</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>979715</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>33334</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1564822</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>176894</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>40822</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="Connecteur droit 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96CA3D98-0E59-428F-A9D9-D2D7FA064F9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5592536" y="4558394"/>
+          <a:ext cx="1306286" cy="13607"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="Connecteur droit 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DB3A3AC-D54A-4A9E-AA1B-2496D12E2C55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8436428" y="3605893"/>
+          <a:ext cx="1306286" cy="13607"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="Connecteur droit 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE9C598-67F2-4F5F-8879-576AF7D97E38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8436428" y="3605893"/>
+          <a:ext cx="1306286" cy="13607"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>830036</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>68037</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1306286</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>87764</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Organigramme : Décision 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1BC01EB-494E-4F96-8522-331BC42F36E0}"/>
+        <xdr:cNvPr id="51" name="Organigramme : Décision 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCBE7CF7-A279-4A8E-BC64-306D4D2C5BB8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9430,7 +9503,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="503465" y="1918607"/>
+          <a:off x="9239250" y="3497037"/>
           <a:ext cx="476250" cy="210227"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
@@ -9469,32 +9542,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>13607</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>763511</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>3024</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Connecteur droit 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B26B9A1B-5697-4877-A92F-CA46663ED49E}"/>
+        <xdr:cNvPr id="52" name="Connecteur droit 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A4C0DCE-E498-4370-9CC9-E7A9B95DD01A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="2803071" y="1918607"/>
-          <a:ext cx="1511" cy="751417"/>
+        <a:xfrm flipV="1">
+          <a:off x="8436428" y="3605893"/>
+          <a:ext cx="1306286" cy="13607"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -9519,23 +9592,73 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>517072</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>993322</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>46941</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="Connecteur droit 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CBD20CE-7C14-4A07-8285-C85FE38773D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8436428" y="3605893"/>
+          <a:ext cx="1306286" cy="13607"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>830036</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>68037</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1306286</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>87764</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Organigramme : Décision 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDADAFCE-2E7C-42BA-B432-202FE35F7532}"/>
+        <xdr:cNvPr id="54" name="Organigramme : Décision 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{288F8E09-0F67-4DA3-95C0-A641E1EF8C7B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9543,7 +9666,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="2558143" y="1932214"/>
+          <a:off x="9239250" y="3497037"/>
           <a:ext cx="476250" cy="210227"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
@@ -9582,23 +9705,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>40822</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>27214</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>176893</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>40821</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="43" name="Connecteur droit 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{063E360A-311E-4C04-AB68-6AACC3CAC49D}"/>
+        <xdr:cNvPr id="61" name="Connecteur droit 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{106669E8-E927-4CE0-9D3C-198AFE9424C7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9606,8 +9729,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8436428" y="5129893"/>
-          <a:ext cx="1306286" cy="13607"/>
+          <a:off x="8450036" y="1360714"/>
+          <a:ext cx="1551214" cy="3510643"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -9632,23 +9755,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>27215</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>27214</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>176893</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>40821</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="44" name="Connecteur droit 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B36C1DC-E99F-4BDB-8EFF-B1F82335E63C}"/>
+        <xdr:cNvPr id="64" name="Connecteur droit 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66B23B82-D3BB-4BAB-B4E2-239C32DD8304}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9656,7 +9779,157 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8436428" y="5129893"/>
+          <a:off x="8436429" y="2490107"/>
+          <a:ext cx="1564821" cy="2354036"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>27215</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>13606</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="Connecteur droit 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA010033-7884-45D0-A83F-781C2C3E22F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8436429" y="4762500"/>
+          <a:ext cx="1537606" cy="81643"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>81643</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1537607</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="Connecteur droit 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B00C412A-5320-48B4-9BBC-5944495F8D9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8490857" y="4803321"/>
+          <a:ext cx="1455964" cy="1115786"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Connecteur droit 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14519A29-880B-4C2D-AFF0-53C46CC58F75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9987643" y="2462893"/>
           <a:ext cx="1306286" cy="13607"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -9682,23 +9955,73 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>830036</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Connecteur droit 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D330480-4F6D-4EC7-8326-2F983F485C5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9987643" y="2462893"/>
+          <a:ext cx="1306286" cy="13607"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>775608</xdr:colOff>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>68037</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1306286</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1204233</xdr:colOff>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>87764</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="Organigramme : Décision 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FDC73BF-206E-4FB9-909E-0952E5728D5C}"/>
+        <xdr:cNvPr id="8" name="Organigramme : Décision 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36CE5E34-9717-4656-B8C5-028A9307EE1D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9706,8 +10029,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="9239250" y="5021037"/>
-          <a:ext cx="476250" cy="210227"/>
+          <a:off x="6381751" y="1211037"/>
+          <a:ext cx="428625" cy="210227"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
@@ -9745,23 +10068,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1564822</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>176894</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>40822</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="48" name="Connecteur droit 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96CA3D98-0E59-428F-A9D9-D2D7FA064F9D}"/>
+        <xdr:cNvPr id="14" name="Connecteur droit 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A51CFDDE-C4B9-4EDB-B96C-CFA50EE37702}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9769,8 +10092,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5592536" y="4558394"/>
-          <a:ext cx="1306286" cy="13607"/>
+          <a:off x="5633357" y="2843893"/>
+          <a:ext cx="1224643" cy="13607"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -9795,23 +10118,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>27214</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>176893</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="49" name="Connecteur droit 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DB3A3AC-D54A-4A9E-AA1B-2496D12E2C55}"/>
+        <xdr:cNvPr id="15" name="Connecteur droit 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C915090-07D9-40EA-86D2-C1746FBD6E8B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9819,8 +10142,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8436428" y="3605893"/>
-          <a:ext cx="1306286" cy="13607"/>
+          <a:off x="5633357" y="2843893"/>
+          <a:ext cx="1224643" cy="13607"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -9845,73 +10168,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>27214</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>176893</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="50" name="Connecteur droit 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE9C598-67F2-4F5F-8879-576AF7D97E38}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8436428" y="3605893"/>
-          <a:ext cx="1306286" cy="13607"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>830036</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>775608</xdr:colOff>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>68037</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1306286</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1204233</xdr:colOff>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>87764</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="Organigramme : Décision 50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCBE7CF7-A279-4A8E-BC64-306D4D2C5BB8}"/>
+        <xdr:cNvPr id="16" name="Organigramme : Décision 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDBEF00F-CC44-4E80-B641-BC7202EBA7F3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9919,8 +10192,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="9239250" y="3497037"/>
-          <a:ext cx="476250" cy="210227"/>
+          <a:off x="6381751" y="2735037"/>
+          <a:ext cx="428625" cy="210227"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
@@ -9954,845 +10227,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>27214</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>176893</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="52" name="Connecteur droit 51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A4C0DCE-E498-4370-9CC9-E7A9B95DD01A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8436428" y="3605893"/>
-          <a:ext cx="1306286" cy="13607"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>27214</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>176893</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="53" name="Connecteur droit 52">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CBD20CE-7C14-4A07-8285-C85FE38773D8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8436428" y="3605893"/>
-          <a:ext cx="1306286" cy="13607"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>830036</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>68037</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1306286</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>87764</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="Organigramme : Décision 53">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{288F8E09-0F67-4DA3-95C0-A641E1EF8C7B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="9239250" y="3497037"/>
-          <a:ext cx="476250" cy="210227"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDecision">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="fr-FR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>27214</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>176893</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="55" name="Connecteur droit 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD00912B-FBB4-4AC6-BE0E-3CE05C8B90B5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8436428" y="3605893"/>
-          <a:ext cx="1306286" cy="13607"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>27214</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>176893</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="56" name="Connecteur droit 55">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4082D29-DDC3-4022-AA10-C9E2760CAACF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8436428" y="3605893"/>
-          <a:ext cx="1306286" cy="13607"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>830036</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>68037</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1306286</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>87764</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="Organigramme : Décision 56">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D412302-C60C-46A3-929F-3381B76F86F9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="9239250" y="3497037"/>
-          <a:ext cx="476250" cy="210227"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDecision">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="fr-FR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>27214</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>176893</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="58" name="Connecteur droit 57">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{794821BD-DCB3-4B54-8159-6F3D5EC38770}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8436428" y="3605893"/>
-          <a:ext cx="1306286" cy="13607"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>27214</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>176893</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="59" name="Connecteur droit 58">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD4BD52B-D45F-4DF5-970C-6AB394C937A6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8436428" y="3605893"/>
-          <a:ext cx="1306286" cy="13607"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>830036</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>68037</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1306286</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>87764</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="Organigramme : Décision 59">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F68B5A99-DC2B-445D-8091-2C71349B19C2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="9239250" y="3497037"/>
-          <a:ext cx="476250" cy="210227"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDecision">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="fr-FR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>40822</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>40821</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="61" name="Connecteur droit 60">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{106669E8-E927-4CE0-9D3C-198AFE9424C7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8450036" y="1360714"/>
-          <a:ext cx="1551214" cy="3510643"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>27215</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>13607</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>40821</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="64" name="Connecteur droit 63">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66B23B82-D3BB-4BAB-B4E2-239C32DD8304}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8436429" y="2490107"/>
-          <a:ext cx="1564821" cy="2354036"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>27215</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>13606</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="67" name="Connecteur droit 66">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA010033-7884-45D0-A83F-781C2C3E22F0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8436429" y="4762500"/>
-          <a:ext cx="1537606" cy="81643"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>54429</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>149679</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>81642</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="69" name="Connecteur droit 68">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A13EBAC6-1370-4BD3-B710-2E95FD2E4ABB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8463643" y="3578679"/>
-          <a:ext cx="1578428" cy="1279071"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>81643</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>40821</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1537607</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>13607</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="72" name="Connecteur droit 71">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B00C412A-5320-48B4-9BBC-5944495F8D9F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="8490857" y="4803321"/>
-          <a:ext cx="1455964" cy="1115786"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>40822</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="75" name="Connecteur droit 74">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F7ADFD3-9619-4B17-B415-03DC037555D0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="8450036" y="4844143"/>
-          <a:ext cx="1483178" cy="3374571"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>81643</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>54428</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="76" name="Connecteur droit 75">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44EBA5E7-5CEB-4C4F-BAD0-FF1BA2E7B153}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="8490857" y="4844143"/>
-          <a:ext cx="1524000" cy="2231571"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -11081,38 +10515,38 @@
   <sheetData>
     <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11120,7 +10554,7 @@
     <row r="17" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11133,7 +10567,7 @@
     <row r="20" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="C20" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11149,7 +10583,7 @@
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="C24" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E24" s="4"/>
     </row>
@@ -11160,7 +10594,7 @@
     <row r="27" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="C27" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11171,13 +10605,13 @@
     </row>
     <row r="29" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="C30" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11191,13 +10625,13 @@
     <row r="33" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C34" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C37" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -11210,7 +10644,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C40" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -11268,7 +10702,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>19</v>
@@ -11330,7 +10764,7 @@
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="I18" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11382,27 +10816,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="H1" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="H1" s="19" t="s">
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="N1" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="N1" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
     </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
@@ -11476,69 +10910,69 @@
     <row r="5" spans="2:18" ht="75" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R5" s="1"/>
     </row>
     <row r="6" spans="2:18" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R6" s="1"/>
     </row>
     <row r="7" spans="2:18" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F7" s="1"/>
       <c r="H7" s="1"/>
@@ -11548,22 +10982,22 @@
       <c r="L7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="R7" s="1"/>
     </row>
     <row r="8" spans="2:18" ht="45" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F8" s="1"/>
       <c r="H8" s="1"/>
@@ -11573,11 +11007,11 @@
       <c r="L8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R8" s="1"/>
     </row>
@@ -11680,10 +11114,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A5:P45"/>
+  <dimension ref="A3:L47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11701,482 +11135,436 @@
     <col min="12" max="12" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E3" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="14" t="s">
-        <v>76</v>
+      <c r="G3" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="17"/>
+      <c r="E5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="L5" s="14" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="8" t="s">
-        <v>25</v>
-      </c>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="E6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="11">
+        <v>1</v>
+      </c>
+      <c r="G6" s="9"/>
       <c r="J6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="8" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="8" t="s">
-        <v>78</v>
-      </c>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="E7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="19"/>
       <c r="I7" s="13" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="8" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="8"/>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="E8" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="I8" s="11" t="s">
         <v>32</v>
       </c>
       <c r="J8" s="9"/>
-      <c r="L8" s="8" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="10"/>
-      <c r="F9" s="13"/>
-      <c r="J9" s="22"/>
-      <c r="L9" s="8"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+      <c r="E9" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="19"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="9"/>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+      <c r="E10" s="9"/>
       <c r="I10" s="13"/>
-      <c r="L10" s="10"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E11" s="19"/>
       <c r="I11" s="13"/>
       <c r="J11" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="L11" s="9"/>
+        <v>92</v>
+      </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
-        <v>100</v>
-      </c>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="18"/>
-      <c r="C12" t="s">
-        <v>101</v>
-      </c>
       <c r="J12" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E13" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>75</v>
+      </c>
       <c r="I13" s="13" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="J13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="L13" s="14" t="s">
-        <v>80</v>
-      </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>32</v>
-      </c>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="13"/>
-      <c r="C14" t="s">
-        <v>32</v>
+      <c r="E14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="I14" s="11" t="s">
         <v>32</v>
       </c>
       <c r="J14" s="9"/>
-      <c r="L14" s="8" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="J15" s="22"/>
-      <c r="L15" s="8" t="s">
-        <v>27</v>
-      </c>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="17"/>
+      <c r="E15" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J15" s="19"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="4"/>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+      <c r="E16" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="11">
+        <v>1</v>
+      </c>
+      <c r="G16" s="8"/>
       <c r="H16" s="4"/>
       <c r="J16"/>
-      <c r="L16" s="8" t="s">
-        <v>28</v>
-      </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="G17" s="2"/>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="E17" s="9"/>
+      <c r="G17" s="19"/>
       <c r="H17" s="2"/>
-      <c r="J17" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="J17"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L18" s="8" t="s">
-        <v>29</v>
-      </c>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="E18" s="19"/>
+      <c r="J18"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="9"/>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
-      <c r="I19" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>81</v>
-      </c>
+      <c r="I19" s="13"/>
+      <c r="J19"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="10"/>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
       <c r="E20" s="14" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="H20" s="20"/>
-      <c r="I20" s="11">
-        <v>1</v>
-      </c>
-      <c r="J20" s="9"/>
-      <c r="L20" s="8"/>
+        <v>82</v>
+      </c>
+      <c r="H20" s="17"/>
+      <c r="I20" s="11"/>
+      <c r="J20"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="9"/>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
       <c r="E21" s="8" t="s">
         <v>25</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H21" s="21"/>
+      <c r="H21" s="2"/>
       <c r="I21" s="13"/>
-      <c r="J21" s="22"/>
-      <c r="L21" s="10" t="s">
-        <v>88</v>
-      </c>
+      <c r="J21"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
       <c r="E22" s="8" t="s">
         <v>27</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="H22" s="21"/>
-      <c r="L22" s="9"/>
+        <v>86</v>
+      </c>
+      <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="21"/>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
       <c r="E23" s="8" t="s">
         <v>28</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="H23" s="21"/>
+        <v>87</v>
+      </c>
+      <c r="H23" s="2"/>
       <c r="J23" s="14" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="21"/>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
       <c r="E24" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="H24" s="21"/>
+        <v>88</v>
+      </c>
+      <c r="H24" s="2"/>
       <c r="J24" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E25" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="H25" s="21"/>
+        <v>89</v>
+      </c>
+      <c r="H25" s="2"/>
       <c r="I25" s="13" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="J25" s="8" t="s">
         <v>26</v>
       </c>
       <c r="L25" s="17"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B26" s="20"/>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="17"/>
       <c r="E26" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="H26" s="21"/>
+        <v>90</v>
+      </c>
+      <c r="H26" s="2"/>
       <c r="I26" s="11">
         <v>1</v>
       </c>
       <c r="J26" s="9"/>
       <c r="L26" s="2"/>
-      <c r="P26" t="s">
-        <v>96</v>
-      </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="21"/>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="2"/>
       <c r="D27" s="13"/>
       <c r="E27" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="H27" s="21"/>
-      <c r="J27" s="22"/>
+        <v>81</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="H27" s="2"/>
+      <c r="J27" s="19"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B28" s="21"/>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
       <c r="E28" s="8"/>
       <c r="G28" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="H28" s="21"/>
+        <v>109</v>
+      </c>
+      <c r="H28" s="2"/>
       <c r="J28"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="21"/>
-      <c r="E29" s="10"/>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="2"/>
+      <c r="E29" s="19"/>
       <c r="G29" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="H29" s="21"/>
+        <v>102</v>
+      </c>
+      <c r="H29" s="2"/>
       <c r="J29" s="14" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B30" s="21"/>
-      <c r="E30" s="9"/>
-      <c r="G30" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="H30" s="21"/>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
+      <c r="E30" s="12"/>
+      <c r="G30" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="H30" s="2"/>
       <c r="J30" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B31" s="21"/>
-      <c r="G31" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="H31" s="21"/>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="2"/>
+      <c r="E31" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="H31" s="2"/>
       <c r="I31" s="13" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="J31" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E32" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="G32" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="H32" s="21"/>
+        <v>97</v>
+      </c>
+      <c r="H32" s="2"/>
       <c r="I32" s="11">
         <v>1</v>
       </c>
       <c r="J32" s="9"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="20"/>
+      <c r="B33" s="17"/>
+      <c r="E33" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="G33" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="H33" s="21"/>
+        <v>98</v>
+      </c>
+      <c r="H33" s="2"/>
       <c r="J33" s="9"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="21"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="21"/>
+      <c r="B34" s="2"/>
+      <c r="E34" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" s="9"/>
+      <c r="H34" s="2"/>
       <c r="J34"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="21"/>
+      <c r="B35" s="2"/>
+      <c r="E35" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="G35" s="9"/>
-      <c r="H35" s="21"/>
-      <c r="J35" s="14" t="s">
-        <v>105</v>
-      </c>
+      <c r="H35" s="2"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="J36" s="8" t="s">
-        <v>25</v>
-      </c>
+      <c r="B36" s="2"/>
+      <c r="E36" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G36" s="12"/>
+      <c r="H36" s="2"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="21"/>
-      <c r="I37" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="J37" s="8" t="s">
-        <v>87</v>
-      </c>
+      <c r="B37" s="2"/>
+      <c r="E37" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I37" s="13"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="21"/>
-      <c r="I38" s="11">
-        <v>1</v>
-      </c>
-      <c r="J38" s="9"/>
+      <c r="B38" s="2"/>
+      <c r="E38" s="8"/>
+      <c r="I38" s="11"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="J39" s="9"/>
+      <c r="E39" s="10" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E40" s="2"/>
-      <c r="J40"/>
+      <c r="E40" s="9"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E41" s="2"/>
-      <c r="J41" s="14" t="s">
-        <v>106</v>
-      </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E42" s="2"/>
-      <c r="J42" s="8" t="s">
-        <v>25</v>
+      <c r="E42" s="14" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E43" s="2"/>
-      <c r="I43" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="J43" s="8" t="s">
-        <v>97</v>
-      </c>
+      <c r="E43" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I43" s="13"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E44" s="2"/>
-      <c r="I44" s="11">
-        <v>1</v>
-      </c>
-      <c r="J44" s="9"/>
+      <c r="E44" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I44" s="11"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="J45" s="9"/>
+      <c r="E45" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E46" s="8"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E47" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/other/Diagrammes.xlsx
+++ b/other/Diagrammes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\garage\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA7B8BB-D843-4BE1-AF19-D06759A44454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C970BBB-F4BA-403B-B486-38E4FF991F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="110">
   <si>
     <t>&lt;&lt;include&gt;&gt;</t>
   </si>
@@ -272,9 +272,6 @@
     <t xml:space="preserve"> - day : string</t>
   </si>
   <si>
-    <t xml:space="preserve"> - hours : time</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - rating : int</t>
   </si>
   <si>
@@ -332,12 +329,6 @@
     <t>Models</t>
   </si>
   <si>
-    <t xml:space="preserve"> - has_equipment : int</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - has_option : int</t>
-  </si>
-  <si>
     <t>0*             has</t>
   </si>
   <si>
@@ -369,6 +360,15 @@
   </si>
   <si>
     <t xml:space="preserve"> - has_brand : string</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - hours : string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      1*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1</t>
   </si>
 </sst>
 </file>
@@ -541,8 +541,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9381,13 +9381,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>27214</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>176893</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9431,13 +9431,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>27214</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>176893</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9481,13 +9481,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>830036</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>68037</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1306286</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>87764</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9806,15 +9806,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>27215</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:colOff>68036</xdr:colOff>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>13606</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
+      <xdr:rowOff>13607</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9829,8 +9829,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8436429" y="4762500"/>
-          <a:ext cx="1537606" cy="81643"/>
+          <a:off x="8477250" y="4191000"/>
+          <a:ext cx="1496785" cy="585107"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -10201,6 +10201,116 @@
         <a:solidFill>
           <a:schemeClr val="bg1"/>
         </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>625928</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>625928</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Connecteur droit 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2344244D-56AC-42CD-B9A1-F3F20A0022A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11919857" y="4599214"/>
+          <a:ext cx="0" cy="734786"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>394606</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>870856</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>169406</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Organigramme : Décision 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56DD2751-50BE-46EE-BD70-C40BE6DF93C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="11688535" y="5102679"/>
+          <a:ext cx="476250" cy="210227"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -10986,7 +11096,7 @@
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R7" s="1"/>
     </row>
@@ -11117,7 +11227,7 @@
   <dimension ref="A3:L47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11157,13 +11267,13 @@
         <v>27</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>26</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
@@ -11186,7 +11296,7 @@
       </c>
       <c r="G7" s="19"/>
       <c r="I7" s="13" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>26</v>
@@ -11218,7 +11328,7 @@
       <c r="E11" s="19"/>
       <c r="I11" s="13"/>
       <c r="J11" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
@@ -11229,13 +11339,13 @@
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E13" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>75</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J13" s="8" t="s">
         <v>26</v>
@@ -11260,17 +11370,17 @@
         <v>76</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="J15" s="19"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="E16" s="15" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F16" s="11">
         <v>1</v>
@@ -11291,6 +11401,7 @@
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="E18" s="19"/>
+      <c r="I18" s="13"/>
       <c r="J18"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -11298,21 +11409,20 @@
       <c r="B19" s="2"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="E20" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H20" s="17"/>
-      <c r="I20" s="11"/>
-      <c r="J20"/>
+      <c r="J20" s="14" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
@@ -11324,8 +11434,9 @@
         <v>25</v>
       </c>
       <c r="H21" s="2"/>
-      <c r="I21" s="13"/>
-      <c r="J21"/>
+      <c r="J21" s="8" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
@@ -11334,9 +11445,15 @@
         <v>27</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H22" s="2"/>
+      <c r="I22" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
@@ -11345,12 +11462,13 @@
         <v>28</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H23" s="2"/>
-      <c r="J23" s="14" t="s">
-        <v>96</v>
-      </c>
+      <c r="I23" s="11">
+        <v>1</v>
+      </c>
+      <c r="J23" s="9"/>
       <c r="L23" s="2"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -11360,90 +11478,82 @@
         <v>30</v>
       </c>
       <c r="F24" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H24" s="2"/>
-      <c r="J24" s="8" t="s">
-        <v>25</v>
-      </c>
+      <c r="J24" s="19"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E25" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H25" s="2"/>
-      <c r="I25" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>26</v>
+      <c r="J25" s="12" t="s">
+        <v>108</v>
       </c>
       <c r="L25" s="17"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B26" s="17"/>
       <c r="E26" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H26" s="2"/>
-      <c r="I26" s="11">
-        <v>1</v>
-      </c>
-      <c r="J26" s="9"/>
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="D27" s="13"/>
       <c r="E27" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="G27" s="21" t="s">
-        <v>83</v>
+        <v>80</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="H27" s="2"/>
-      <c r="J27" s="19"/>
       <c r="L27" s="2"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="E28" s="8"/>
-      <c r="G28" s="15" t="s">
+      <c r="G28" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H28" s="2"/>
+      <c r="J28" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="H28" s="2"/>
-      <c r="J28"/>
       <c r="L28" s="2"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="E29" s="19"/>
-      <c r="G29" s="15" t="s">
-        <v>102</v>
+      <c r="G29" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="H29" s="2"/>
       <c r="J29" s="14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L29" s="2"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="E30" s="12"/>
-      <c r="G30" s="21" t="s">
-        <v>84</v>
+      <c r="G30" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="H30" s="2"/>
       <c r="J30" s="8" t="s">
@@ -11453,14 +11563,14 @@
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="E31" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="G31" s="21" t="s">
-        <v>93</v>
+        <v>103</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J31" s="8" t="s">
         <v>26</v>
@@ -11471,7 +11581,7 @@
         <v>25</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="11">
@@ -11485,7 +11595,7 @@
         <v>27</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H33" s="2"/>
       <c r="J33" s="9"/>
@@ -11518,7 +11628,7 @@
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="E37" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I37" s="13"/>
     </row>
@@ -11529,7 +11639,7 @@
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E39" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
@@ -11569,6 +11679,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="J28" numberStoredAsText="1"/>
+  </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>